--- a/Lab3/src/lab3.xlsx
+++ b/Lab3/src/lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reidaruss/Desktop/Junior_Year/Algorithms/Reid_Russell_CS3353/Lab3/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5524DBF-A829-0047-BE52-B8A696951CC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344CCBC5-8F36-C746-9DFE-B49463A0CF8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18320" yWindow="1960" windowWidth="16640" windowHeight="17440" xr2:uid="{F87358E0-4A70-144F-A56E-8728BB4DCB34}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Brute Force Runtimes</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Dynamic Programming Runtimes</t>
   </si>
 </sst>
 </file>
@@ -392,18 +395,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF5B89A-D687-6046-9EC7-D921DE238BB0}">
-  <dimension ref="C4:E9"/>
+  <dimension ref="C4:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -413,45 +417,175 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>4.1548999999999998E-5</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0498099999999999E-4</v>
+      </c>
+      <c r="H6">
+        <f>H5+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6.1086400000000003E-4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H21" si="0">H6+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.6273899999999999E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.5053000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.36330299999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>2.9923199999999999</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D7">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="E12">
         <v>28.286899999999999</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D8">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E13">
         <v>339.44799999999998</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D9">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="E14">
         <v>4850.46</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f>H17+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3/src/lab3.xlsx
+++ b/Lab3/src/lab3.xlsx
@@ -8,13 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reidaruss/Desktop/Junior_Year/Algorithms/Reid_Russell_CS3353/Lab3/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344CCBC5-8F36-C746-9DFE-B49463A0CF8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0799CCA2-4966-5F42-B622-D4C07B9917F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18320" yWindow="1960" windowWidth="16640" windowHeight="17440" xr2:uid="{F87358E0-4A70-144F-A56E-8728BB4DCB34}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{F87358E0-4A70-144F-A56E-8728BB4DCB34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$5:$D$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$5:$E$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$E$5:$E$12</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$I$5:$I$21</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$5:$E$14</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$H$5:$H$21</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$I$5:$I$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$I$5:$I$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$5:$D$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$5:$E$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$I$5:$I$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$5:$D$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$5:$E$12</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$I$5:$I$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$D$5:$D$12</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Brute Force Runtimes</t>
   </si>
@@ -44,18 +61,50 @@
   <si>
     <t>Dynamic Programming Runtimes</t>
   </si>
+  <si>
+    <t>Number of Nodes</t>
+  </si>
+  <si>
+    <t>Runtime (s)</t>
+  </si>
+  <si>
+    <t>Dynamic Programming Approach</t>
+  </si>
+  <si>
+    <t>Naïve Approach</t>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <t>n^2*2^n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +127,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,6 +153,3171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time vs Number of Nodes</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Naive and DP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.5896000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5639999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1238999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.50527E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>3.39847E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>5.9534900000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.5482999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>3.3774500000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>6.6723800000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.0318699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6.2886999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.137489</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.32143300000000002</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.58217099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>1.42448</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>2.3950100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>4.9586100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D0CB-2A4B-80F8-D36006565FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Naive</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.1548999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0498099999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1086400000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6273899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5053000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36330299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.9923199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>28.286899999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>339.44799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D0CB-2A4B-80F8-D36006565FBD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1270351520"/>
+        <c:axId val="1270353152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1270351520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270353152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1270353152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270351520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n! vs n</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>362880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CE60-C94B-A3CD-F753A72A27E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="1200571680"/>
+        <c:axId val="1274959072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1200571680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274959072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1274959072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n!</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1200571680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^2*2^n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$5:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>247808</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>589824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1384448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3211264</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7372800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37879808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84934656</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>189267968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>419430400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A337-0B46-979E-308941C1CB09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1309603168"/>
+        <c:axId val="1309653184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1309603168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309653184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1309653184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309603168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D4C821-9AEE-8245-A24B-B0841761F371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1984AD08-EA39-1043-8A71-81ED575E39D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FADB27BC-382A-0A41-B5B7-AB300CA76000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,19 +3617,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF5B89A-D687-6046-9EC7-D921DE238BB0}">
-  <dimension ref="C4:I21"/>
+  <dimension ref="C4:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J4" sqref="J4:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -417,6 +3640,9 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
@@ -426,79 +3652,148 @@
       <c r="I4" t="s">
         <v>2</v>
       </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>4.1548999999999998E-5</v>
       </c>
+      <c r="F5">
+        <f>FACT($D5)</f>
+        <v>24</v>
+      </c>
       <c r="H5">
         <v>4</v>
       </c>
+      <c r="I5" s="2">
+        <v>2.5896000000000001E-5</v>
+      </c>
+      <c r="J5">
+        <f>POWER(H5,2) * POWER(2,H5)</f>
+        <v>256</v>
+      </c>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>2.0498099999999999E-4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F14" si="0">FACT($D6)</f>
+        <v>120</v>
       </c>
       <c r="H6">
         <f>H5+1</f>
         <v>5</v>
       </c>
+      <c r="I6" s="2">
+        <v>4.5639999999999997E-5</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J21" si="1">POWER(H6,2) * POWER(2,H6)</f>
+        <v>800</v>
+      </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>6.1086400000000003E-4</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
       <c r="H7">
-        <f t="shared" ref="H7:H21" si="0">H6+1</f>
+        <f t="shared" ref="H7:H21" si="2">H6+1</f>
         <v>6</v>
       </c>
+      <c r="I7" s="2">
+        <v>8.1238999999999999E-5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>2304</v>
+      </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" s="1">
         <v>3.6273899999999999E-3</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>5040</v>
+      </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="I8" s="2">
+        <v>3.50527E-4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>6272</v>
+      </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>3.5053000000000001E-2</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>40320</v>
+      </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
+      <c r="I9" s="3">
+        <v>3.39847E-4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" s="1">
         <v>0.36330299999999999</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>362880</v>
+      </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="I10" s="3">
+        <v>5.9534900000000001E-4</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>41472</v>
+      </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D11">
         <v>10</v>
       </c>
@@ -506,11 +3801,18 @@
         <v>2.9923199999999999</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="I11" s="3">
+        <v>3.5482999999999999E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>102400</v>
+      </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>11</v>
       </c>
@@ -518,11 +3820,18 @@
         <v>28.286899999999999</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
+      <c r="I12" s="3">
+        <v>3.3774500000000002E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>247808</v>
+      </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D13">
         <v>12</v>
       </c>
@@ -530,11 +3839,18 @@
         <v>339.44799999999998</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="I13" s="3">
+        <v>6.6723800000000003E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>589824</v>
+      </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>13</v>
       </c>
@@ -542,53 +3858,343 @@
         <v>4850.46</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
+      <c r="I14" s="3">
+        <v>2.0318699999999999E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>1384448</v>
+      </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
+      <c r="I15" s="3">
+        <v>6.2886999999999998E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>3211264</v>
+      </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
+      <c r="I16" s="3">
+        <v>0.137489</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>7372800</v>
+      </c>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="I17" s="3">
+        <v>0.32143300000000002</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>16777216</v>
+      </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H18">
         <f>H17+1</f>
         <v>17</v>
       </c>
+      <c r="I18" s="3">
+        <v>0.58217099999999999</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>37879808</v>
+      </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="I19" s="3">
+        <v>1.42448</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>84934656</v>
+      </c>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
+      <c r="I20" s="3">
+        <v>2.3950100000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>189267968</v>
+      </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4.9586100000000002</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>419430400</v>
+      </c>
+    </row>
+    <row r="24" spans="8:15" ht="35" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="8:15" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2.5896000000000001E-5</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>4.1548999999999998E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <f>K26+1</f>
+        <v>5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>4.5639999999999997E-5</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2.0498099999999999E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <f t="shared" ref="K28:K42" si="3">K27+1</f>
+        <v>6</v>
+      </c>
+      <c r="L28" s="2">
+        <v>8.1238999999999999E-5</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28" s="1">
+        <v>6.1086400000000003E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="L29" s="2">
+        <v>3.50527E-4</v>
+      </c>
+      <c r="N29">
+        <v>7</v>
+      </c>
+      <c r="O29" s="1">
+        <v>3.6273899999999999E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L30" s="3">
+        <v>3.39847E-4</v>
+      </c>
+      <c r="N30">
+        <v>8</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3.5053000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L31" s="3">
+        <v>5.9534900000000001E-4</v>
+      </c>
+      <c r="N31">
+        <v>9</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.36330299999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L32" s="3">
+        <v>3.5482999999999999E-3</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>2.9923199999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3.3774500000000002E-3</v>
+      </c>
+      <c r="N33">
+        <v>11</v>
+      </c>
+      <c r="O33">
+        <v>28.286899999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L34" s="3">
+        <v>6.6723800000000003E-3</v>
+      </c>
+      <c r="N34">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>339.44799999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2.0318699999999999E-2</v>
+      </c>
+      <c r="N35">
+        <v>13</v>
+      </c>
+      <c r="O35">
+        <v>4850.46</v>
+      </c>
+    </row>
+    <row r="36" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L36" s="3">
+        <v>6.2886999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.137489</v>
+      </c>
+    </row>
+    <row r="38" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.32143300000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <f>K38+1</f>
+        <v>17</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.58217099999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <f t="shared" ref="K40:K42" si="4">K39+1</f>
+        <v>18</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1.42448</v>
+      </c>
+    </row>
+    <row r="41" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2.3950100000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="11:15" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="L42" s="3">
+        <v>4.9586100000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>